--- a/ref/preliminary_calibration_info/df_ip_var_calib.xlsx
+++ b/ref/preliminary_calibration_info/df_ip_var_calib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/preliminary_calibration_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A9D3A518-A456-7B4F-B796-E186CDB5FCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D39EA-DF52-8940-AB56-00B1A8CC55EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="32840" windowHeight="20040" xr2:uid="{C56D6200-D790-8F41-83C3-9FCF52DEFC0A}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="32840" windowHeight="20040" xr2:uid="{C56D6200-D790-8F41-83C3-9FCF52DEFC0A}"/>
   </bookViews>
   <sheets>
     <sheet name="df_afolu_var_calib" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="185">
   <si>
     <t>Calibration</t>
   </si>
@@ -136,12 +136,6 @@
     <t>demscalar_ippu_metals</t>
   </si>
   <si>
-    <t>demscalar_ippu_non_energy_products</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_ods_products</t>
-  </si>
-  <si>
     <t>demscalar_ippu_other_industries</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
     <t>ef_ippu_tonne_ch4_per_tonne_production_metals</t>
   </si>
   <si>
-    <t>ef_ippu_tonne_co2_per_mmm_gdp_non_energy_products</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_cement</t>
-  </si>
-  <si>
     <t>ef_ippu_tonne_co2_per_tonne_production_chemicals</t>
   </si>
   <si>
@@ -205,33 +193,6 @@
     <t>ef_ippu_tonne_co2_per_tonne_production_metals</t>
   </si>
   <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_recycled_glass</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc134a_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc134a_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc134a_per_tonne_production_metals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc134a_per_tonne_production_ods_products</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc23_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc23_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc23_per_tonne_production_ods_products</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_hfc23_per_tonne_production_other_product_manufacturing</t>
-  </si>
-  <si>
     <t>ef_ippu_tonne_n2o_per_mmm_gdp_other_product_manufacturing</t>
   </si>
   <si>
@@ -241,60 +202,9 @@
     <t>ef_ippu_tonne_sf6_per_mmm_gdp_other_product_manufacturing</t>
   </si>
   <si>
-    <t>ef_ippu_tonne_sf6_per_tonne_production_chemicals</t>
-  </si>
-  <si>
     <t>ef_ippu_tonne_sf6_per_tonne_production_electronics</t>
   </si>
   <si>
-    <t>elast_ippu_cement_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_chemicals_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_electronics_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_glass_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_lime_and_carbonite_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_metals_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_paper_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_plastic_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_recycled_glass_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_recycled_metals_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_recycled_paper_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_recycled_plastic_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_recycled_rubber_and_leather_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_recycled_textiles_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_rubber_and_leather_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elast_ippu_textiles_production_to_gdp</t>
-  </si>
-  <si>
     <t>prodinit_ippu_cement_tonne</t>
   </si>
   <si>
@@ -337,9 +247,6 @@
     <t>prodinit_ippu_recycled_textiles_tonne</t>
   </si>
   <si>
-    <t>prodinit_ippu_recycled_wood_tonne</t>
-  </si>
-  <si>
     <t>prodinit_ippu_rubber_and_leather_tonne</t>
   </si>
   <si>
@@ -370,9 +277,6 @@
     <t>qty_ippu_plastic_tonne_cod_per_m3_ww</t>
   </si>
   <si>
-    <t>qty_ippu_recycled_glass_tonne_cod_per_m3_ww</t>
-  </si>
-  <si>
     <t>qty_ippu_recycled_metals_tonne_cod_per_m3_ww</t>
   </si>
   <si>
@@ -388,9 +292,6 @@
     <t>qty_ippu_recycled_textiles_tonne_cod_per_m3_ww</t>
   </si>
   <si>
-    <t>qty_ippu_recycled_wood_tonne_cod_per_m3_ww</t>
-  </si>
-  <si>
     <t>qty_ippu_rubber_and_leather_tonne_cod_per_m3_ww</t>
   </si>
   <si>
@@ -439,9 +340,6 @@
     <t>vol_ippu_recycled_textiles_m3_ww_per_tonne_production</t>
   </si>
   <si>
-    <t>vol_ippu_recycled_wood_m3_ww_per_tonne_production</t>
-  </si>
-  <si>
     <t>vol_ippu_rubber_and_leather_m3_ww_per_tonne_production</t>
   </si>
   <si>
@@ -451,9 +349,6 @@
     <t xml:space="preserve">Used to scale demands for industrial production. Should be set to 1 in calibration. </t>
   </si>
   <si>
-    <t>Emission factors are based on IPCC numbers (see readthedocs), but these should be reviewed.</t>
-  </si>
-  <si>
     <t>Elasticities are used to project out production demands in the future. They can be calibrated, but they are currently arbitrary, and we should get some better basis</t>
   </si>
   <si>
@@ -461,6 +356,244 @@
   </si>
   <si>
     <t>THESE are used for interactions with the wastewater model. However, they are NOT currently used in the interactions.</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_lubricants</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_other</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_paraffin_wax</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2f6_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2f6_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2h3f3_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3f8_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h2f6_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h2f6_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3hf7_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3hf7_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f10_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f6_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f8o_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4h5f5_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c5f8_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c5h2f10_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c6f14_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cc4f8_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cf4_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cf4_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch2f2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch2f2_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3chf2_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3chf2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch4_per_tonne_production_plastic</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_product_use_product_use_lubricants</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_product_use_product_use_paraffin_wax</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_cement_clinker</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_plastic</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_n2o_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_nf3_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_cement_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_chemicals_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_electronics_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_glass_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_lime_and_carbonite_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_metals_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_paper_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_plastic_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_lubricants_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_ods_other_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_ods_refrigeration_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_paraffin_wax_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_rubber_and_leather_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_textiles_production_to_gdp</t>
+  </si>
+  <si>
+    <t>emitinit_ippu_product_use_other_kt_co2</t>
+  </si>
+  <si>
+    <t>frac_ippu_cement_clinker</t>
+  </si>
+  <si>
+    <t>maxfrac_ippu_maximum_recylced_material_ratio_glass</t>
+  </si>
+  <si>
+    <t>maxfrac_ippu_maximum_recylced_material_ratio_plastic</t>
+  </si>
+  <si>
+    <t>net_imports_cement_clinker_tonne</t>
+  </si>
+  <si>
+    <t>useinit_ippu_product_use_lubricants_kt</t>
+  </si>
+  <si>
+    <t>useinit_ippu_product_use_paraffin_wax_kt</t>
+  </si>
+  <si>
+    <t>Emission factors are based on IPCC numbers (see readthedocs), but these should be reviewed.
+NOTE: all emission factors for a given industry should, at this stage, probably be scaled together. E.g., for electronics, all emission factors should be scaled in the same direction (within bounds) during the calibration process.</t>
+  </si>
+  <si>
+    <t>Historical Lubricants use (non energy end use): http://data.un.org/Data.aspx?d=EDATA&amp;f=cmID%3ALU</t>
+  </si>
+  <si>
+    <t>Historical Paraffin Wax use (non energy end use): http://data.un.org/Data.aspx?d=EDATA&amp;f=cmID%3APW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very straightahead. Just an emissions quantity. Basically, Non-Methane Volatile Organic Compounds (NMVOC)—includes things like asphalt application, tarring roofs, etc. VERY SMALL EMISSIONS
+See https://www.researchgate.net/publication/317904341_Speciation_of_anthropogenic_emissions_of_non-methane_volatile_organic_compounds_A_global_gridded_data_set_for_1970-2012  
+and the data at: https://edgar.jrc.ec.europa.eu/dataset_ap432_VOC_spec
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- cement clinker net imports can be taken from WITS (https://wits.worldbank.org/trade/comtrade/en/country/ALL/year/2019/tradeflow/Imports/partner/WLD/product/252310 and https://wits.worldbank.org/trade/comtrade/en/country/ALL/year/2019/tradeflow/Exports/partner/WLD/product/252310 -- also, see the SISEPUEDE docs for these links in the Variables by Partial Category table for IPPU) </t>
+  </si>
+  <si>
+    <t>Notes on Variable Coloring:</t>
+  </si>
+  <si>
+    <t>These emission factors are all set to 1 by default. Activity data would be far too complex to integrate. These should be scaled--preferably uniformly by category, so that, for example, all emission factors assocaited with "product_use_refrigeration" are scaled up or down in the same direction and all.</t>
+  </si>
+  <si>
+    <t>Electronics emission factors are derived (using some first-pass guesstimates to translate m2 substrate into tonne product) from electronics-manufacturing process factors, but which gasses are emitted depends highly on what is being manufactured. These should be scaled up or down together.</t>
+  </si>
+  <si>
+    <t>maximum proportion of material for plastic production that can be replaced with recycled plastic</t>
+  </si>
+  <si>
+    <t>maximum proportion of material for glass production that can be replaced with recycled plastic</t>
+  </si>
+  <si>
+    <t>These emission factors are all pretty good. They are based on per production values form the IPCC. It is less important that they move in the same direction during calibration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals are similar to electronics—very dependent on what chemicals are being produced. Likely makes sense to scale them all at the same time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar treatment to product_use_refrigeration, e.g. </t>
   </si>
 </sst>
 </file>
@@ -522,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +710,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -803,15 +966,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,82 +1027,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,6 +1049,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,139 +1455,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C64BE5-C8DA-C44F-8D4A-1132CA069F94}">
-  <dimension ref="A1:V239"/>
+  <dimension ref="A1:V237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="3" max="4" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="82.5" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
     <col min="11" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="30.33203125" customWidth="1"/>
+    <col min="19" max="20" width="30.33203125" customWidth="1"/>
+    <col min="21" max="21" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="34" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="26" t="s">
+      <c r="T1" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="35"/>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="171" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="44"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+    </row>
+    <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1400,11 +1610,11 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1421,9 +1631,9 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1440,9 +1650,9 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1459,9 +1669,9 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1688,9 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8" s="40"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1497,9 +1707,9 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="40"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1516,9 +1726,9 @@
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" s="40"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1535,9 +1745,9 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1554,9 +1764,9 @@
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12" s="40"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1573,9 +1783,9 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13" s="40"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1592,14 +1802,14 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="40"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1611,14 +1821,14 @@
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15" s="40"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1630,14 +1840,14 @@
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16" s="40"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1649,14 +1859,14 @@
       <c r="R17">
         <v>1</v>
       </c>
-      <c r="S17" s="40"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1668,14 +1878,14 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18" s="40"/>
+      <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1687,14 +1897,14 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19" s="40"/>
+      <c r="S19" s="15"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1706,14 +1916,14 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20" s="40"/>
+      <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1725,14 +1935,14 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="40"/>
+      <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1744,14 +1954,14 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="40"/>
+      <c r="S22" s="15"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1763,14 +1973,14 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="40"/>
+      <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1782,14 +1992,14 @@
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24" s="40"/>
-    </row>
-    <row r="25" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1801,686 +2011,664 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25" s="41"/>
+      <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F26"/>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F27"/>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F28"/>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="12"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>51</v>
+      <c r="B29" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F29"/>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="T29" s="48"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="12"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
-        <v>52</v>
+      <c r="B30" s="49" t="s">
+        <v>113</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D30">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F30"/>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="12"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
+      <c r="B31" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F31"/>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="R31" s="38"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="12"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>54</v>
+      <c r="B32" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F32"/>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="12"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
+      <c r="B33" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="C33">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F33"/>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="15"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="V33" s="12"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>56</v>
+      <c r="B34" s="49" t="s">
+        <v>117</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F34"/>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="S34" s="15"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="12"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
-        <v>57</v>
+      <c r="B35" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="C35">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D35">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F35"/>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="S35" s="15"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="12"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
-        <v>58</v>
+      <c r="B36" s="48" t="s">
+        <v>119</v>
       </c>
       <c r="C36">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F36"/>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="15"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
-        <v>59</v>
+      <c r="B37" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="C37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F37"/>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="15"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="12"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="s">
-        <v>60</v>
+      <c r="B38" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="C38">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F38"/>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="R38" s="38"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="15"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
-        <v>61</v>
+      <c r="B39" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D39">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F39"/>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="15"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="V39" s="12"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
-        <v>62</v>
+      <c r="B40" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D40">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F40"/>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="R40" s="38"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="S40" s="15"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="12"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
-        <v>63</v>
+      <c r="B41" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="C41">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D41">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F41"/>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="S41" s="15"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="12"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
-      <c r="B42" t="s">
-        <v>64</v>
+      <c r="B42" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F42"/>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="R42" s="38"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="V42" s="12"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="B43" t="s">
-        <v>65</v>
+      <c r="B43" s="49" t="s">
+        <v>126</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D43">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F43"/>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="R43" s="38"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="S43" s="15"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="12"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
-        <v>66</v>
+      <c r="B44" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="C44">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D44">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F44"/>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="R44" s="38"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="15"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="12"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
+      <c r="B45" s="49" t="s">
+        <v>128</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F45"/>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="R45" s="38"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B46" t="s">
-        <v>68</v>
+      <c r="B46" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="C46">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D46">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F46"/>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="15"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" t="s">
-        <v>68</v>
+      <c r="B47" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D47">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F47"/>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="R47" s="38"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
-      <c r="B48" t="s">
-        <v>69</v>
+      <c r="B48" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="C48">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F48"/>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="R48" s="38"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-    </row>
-    <row r="49" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
-        <v>69</v>
+      <c r="B49" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="C49">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D49">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F49"/>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="S49" s="15"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
-        <v>70</v>
+      <c r="B50" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F50"/>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="S50" s="15"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="B51" t="s">
-        <v>71</v>
+      <c r="B51" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="C51">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D51">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F51"/>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="R51" s="38"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="S51" s="15"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B52" t="s">
-        <v>72</v>
+      <c r="B52" s="49" t="s">
+        <v>135</v>
       </c>
       <c r="C52">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F52"/>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="R52" s="38"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="S52" s="15"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
-      <c r="B53" t="s">
-        <v>73</v>
+      <c r="B53" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="C53">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D53">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F53"/>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="R53" s="38"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="S53" s="15"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" t="s">
-        <v>74</v>
+      <c r="B54" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="C54">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D54">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F54"/>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="R54" s="38"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="S54" s="15"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="B55" t="s">
-        <v>75</v>
+      <c r="B55" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="C55">
         <v>0.8</v>
@@ -2489,21 +2677,19 @@
         <v>1.2</v>
       </c>
       <c r="F55"/>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="R55" s="38"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="S55" s="15"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
-      <c r="B56" t="s">
-        <v>76</v>
+      <c r="B56" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="C56">
         <v>0.8</v>
@@ -2512,21 +2698,20 @@
         <v>1.2</v>
       </c>
       <c r="F56"/>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="S56" s="15"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57" t="s">
-        <v>77</v>
+      <c r="B57" s="50" t="s">
+        <v>138</v>
       </c>
       <c r="C57">
         <v>0.8</v>
@@ -2535,113 +2720,108 @@
         <v>1.2</v>
       </c>
       <c r="F57"/>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="S57" s="15"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="B58" t="s">
-        <v>78</v>
+      <c r="B58" s="48" t="s">
+        <v>139</v>
       </c>
       <c r="C58">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D58">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F58"/>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="R58" s="38"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
-      <c r="B59" t="s">
-        <v>79</v>
+      <c r="B59" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="C59">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D59">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F59"/>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="R59" s="38"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="S59" s="15"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
-      <c r="B60" t="s">
-        <v>80</v>
+      <c r="B60" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="C60">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D60">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F60"/>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="R60" s="38"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="S60" s="15"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
-      <c r="B61" t="s">
-        <v>81</v>
+      <c r="B61" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="C61">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D61">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F61"/>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="R61" s="38"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="S61" s="15"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
-      <c r="B62" t="s">
-        <v>82</v>
+      <c r="B62" s="51" t="s">
+        <v>143</v>
       </c>
       <c r="C62">
         <v>0.8</v>
@@ -2650,44 +2830,42 @@
         <v>1.2</v>
       </c>
       <c r="F62"/>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="R62" s="38"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="S62" s="15"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
-      <c r="B63" t="s">
-        <v>83</v>
+      <c r="B63" s="49" t="s">
+        <v>144</v>
       </c>
       <c r="C63">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D63">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F63"/>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="R63" s="38"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="15"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
-      <c r="B64" t="s">
-        <v>84</v>
+      <c r="B64" s="50" t="s">
+        <v>145</v>
       </c>
       <c r="C64">
         <v>0.8</v>
@@ -2696,21 +2874,20 @@
         <v>1.2</v>
       </c>
       <c r="F64"/>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="R64" s="38"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-    </row>
-    <row r="65" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="15"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
-      <c r="B65" t="s">
-        <v>85</v>
+      <c r="B65" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="C65">
         <v>0.8</v>
@@ -2719,21 +2896,22 @@
         <v>1.2</v>
       </c>
       <c r="F65"/>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="R65" s="38"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="15"/>
+      <c r="T65" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" t="s">
-        <v>86</v>
+      <c r="B66" s="50" t="s">
+        <v>147</v>
       </c>
       <c r="C66">
         <v>0.8</v>
@@ -2742,23 +2920,20 @@
         <v>1.2</v>
       </c>
       <c r="F66"/>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="R66" s="38"/>
-      <c r="S66" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="S66" s="15"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>25</v>
       </c>
-      <c r="B67" t="s">
-        <v>87</v>
+      <c r="B67" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="C67">
         <v>0.8</v>
@@ -2767,21 +2942,20 @@
         <v>1.2</v>
       </c>
       <c r="F67"/>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="R67" s="38"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="S67" s="15"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>25</v>
       </c>
-      <c r="B68" t="s">
-        <v>88</v>
+      <c r="B68" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -2790,21 +2964,20 @@
         <v>1.2</v>
       </c>
       <c r="F68"/>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="R68" s="38"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="S68" s="15"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>25</v>
       </c>
-      <c r="B69" t="s">
-        <v>89</v>
+      <c r="B69" s="50" t="s">
+        <v>50</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -2813,21 +2986,20 @@
         <v>1.2</v>
       </c>
       <c r="F69"/>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="S69" s="15"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>25</v>
       </c>
-      <c r="B70" t="s">
-        <v>90</v>
+      <c r="B70" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="C70">
         <v>0.8</v>
@@ -2836,21 +3008,20 @@
         <v>1.2</v>
       </c>
       <c r="F70"/>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="R70" s="38"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="S70" s="15"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="B71" t="s">
-        <v>91</v>
+      <c r="B71" s="50" t="s">
+        <v>148</v>
       </c>
       <c r="C71">
         <v>0.8</v>
@@ -2859,21 +3030,20 @@
         <v>1.2</v>
       </c>
       <c r="F71"/>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="R71" s="38"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="S71" s="15"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>25</v>
       </c>
-      <c r="B72" t="s">
-        <v>92</v>
+      <c r="B72" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="C72">
         <v>0.8</v>
@@ -2882,21 +3052,20 @@
         <v>1.2</v>
       </c>
       <c r="F72"/>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="R72" s="38"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="S72" s="15"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>25</v>
       </c>
-      <c r="B73" t="s">
-        <v>93</v>
+      <c r="B73" s="51" t="s">
+        <v>53</v>
       </c>
       <c r="C73">
         <v>0.8</v>
@@ -2905,67 +3074,64 @@
         <v>1.2</v>
       </c>
       <c r="F73"/>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="R73" s="38"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="S73" s="15"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>25</v>
       </c>
-      <c r="B74" t="s">
-        <v>94</v>
+      <c r="B74" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="C74">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D74">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F74"/>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="R74" s="38"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="S74" s="15"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B75" t="s">
-        <v>95</v>
+      <c r="B75" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="C75">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D75">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F75"/>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="R75" s="38"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="S75" s="15"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>25</v>
       </c>
-      <c r="B76" t="s">
-        <v>96</v>
+      <c r="B76" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="C76">
         <v>0.8</v>
@@ -2974,21 +3140,20 @@
         <v>1.2</v>
       </c>
       <c r="F76"/>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="R76" s="38"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="S76" s="15"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+    </row>
+    <row r="77" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>25</v>
       </c>
-      <c r="B77" t="s">
-        <v>97</v>
+      <c r="B77" s="49" t="s">
+        <v>55</v>
       </c>
       <c r="C77">
         <v>0.8</v>
@@ -2997,21 +3162,20 @@
         <v>1.2</v>
       </c>
       <c r="F77"/>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="R77" s="38"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="S77" s="15"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -3020,21 +3184,22 @@
         <v>1.2</v>
       </c>
       <c r="F78"/>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="R78" s="38"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="S78" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -3043,21 +3208,20 @@
         <v>1.2</v>
       </c>
       <c r="F79"/>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="S79" s="18"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="C80">
         <v>0.8</v>
@@ -3066,21 +3230,20 @@
         <v>1.2</v>
       </c>
       <c r="F80"/>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="R80" s="38"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="S80" s="18"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C81">
         <v>0.8</v>
@@ -3089,21 +3252,20 @@
         <v>1.2</v>
       </c>
       <c r="F81"/>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="R81" s="38"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-    </row>
-    <row r="82" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="S81" s="18"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C82">
         <v>0.8</v>
@@ -3112,21 +3274,22 @@
         <v>1.2</v>
       </c>
       <c r="F82"/>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="R82" s="38"/>
-      <c r="S82" s="44"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="S82" s="18"/>
+      <c r="T82" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C83">
         <v>0.8</v>
@@ -3138,20 +3301,17 @@
       <c r="M83">
         <v>1</v>
       </c>
-      <c r="R83" s="38"/>
-      <c r="S83" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C84">
         <v>0.8</v>
@@ -3163,18 +3323,17 @@
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="R84" s="38"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C85">
         <v>0.8</v>
@@ -3186,110 +3345,105 @@
       <c r="M85">
         <v>1</v>
       </c>
-      <c r="R85" s="38"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C86">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D86">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F86"/>
       <c r="M86">
         <v>1</v>
       </c>
-      <c r="R86" s="38"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C87">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D87">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F87"/>
       <c r="M87">
         <v>1</v>
       </c>
-      <c r="R87" s="38"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C88">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D88">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F88"/>
       <c r="M88">
         <v>1</v>
       </c>
-      <c r="R88" s="38"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="C89">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D89">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F89"/>
       <c r="M89">
         <v>1</v>
       </c>
-      <c r="R89" s="38"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C90">
         <v>0.8</v>
@@ -3301,18 +3455,17 @@
       <c r="M90">
         <v>1</v>
       </c>
-      <c r="R90" s="38"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S90" s="18"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+    </row>
+    <row r="91" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C91">
         <v>0.8</v>
@@ -3324,18 +3477,17 @@
       <c r="M91">
         <v>1</v>
       </c>
-      <c r="R91" s="38"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S91" s="19"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+    </row>
+    <row r="92" spans="1:22" ht="373" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C92">
         <v>0.8</v>
@@ -3344,113 +3496,116 @@
         <v>1.2</v>
       </c>
       <c r="F92"/>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="R92" s="38"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="38"/>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="S92" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="C93">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="D93">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="F93"/>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="R93" s="38"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="38"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="S93" s="45"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+    </row>
+    <row r="94" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C94">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D94">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F94"/>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="R94" s="38"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="S94" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+    </row>
+    <row r="95" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C95">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D95">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F95"/>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="R95" s="38"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="S95" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+    </row>
+    <row r="96" spans="1:22" ht="221" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C96">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D96">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F96"/>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="R96" s="38"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="38"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="38"/>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="S96" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C97">
         <v>0.8</v>
@@ -3459,21 +3614,20 @@
         <v>1.2</v>
       </c>
       <c r="F97"/>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="R97" s="38"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="38"/>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="S97" s="45"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C98">
         <v>0.8</v>
@@ -3482,21 +3636,20 @@
         <v>1.2</v>
       </c>
       <c r="F98"/>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="R98" s="38"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="38"/>
-      <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="S98" s="45"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C99">
         <v>0.8</v>
@@ -3505,21 +3658,20 @@
         <v>1.2</v>
       </c>
       <c r="F99"/>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="R99" s="38"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="38"/>
-      <c r="U99" s="38"/>
-      <c r="V99" s="38"/>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="S99" s="45"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C100">
         <v>0.8</v>
@@ -3528,21 +3680,20 @@
         <v>1.2</v>
       </c>
       <c r="F100"/>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="R100" s="38"/>
-      <c r="S100" s="40"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="38"/>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="S100" s="45"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C101">
         <v>0.8</v>
@@ -3551,21 +3702,20 @@
         <v>1.2</v>
       </c>
       <c r="F101"/>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="R101" s="38"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="38"/>
-      <c r="U101" s="38"/>
-      <c r="V101" s="38"/>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="S101" s="45"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C102">
         <v>0.8</v>
@@ -3574,21 +3724,17 @@
         <v>1.2</v>
       </c>
       <c r="F102"/>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="R102" s="38"/>
-      <c r="S102" s="40"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38"/>
-      <c r="V102" s="38"/>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="S102" s="45"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C103">
         <v>0.8</v>
@@ -3597,21 +3743,17 @@
         <v>1.2</v>
       </c>
       <c r="F103"/>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="R103" s="38"/>
-      <c r="S103" s="40"/>
-      <c r="T103" s="38"/>
-      <c r="U103" s="38"/>
-      <c r="V103" s="38"/>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="S103" s="45"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C104">
         <v>0.8</v>
@@ -3620,17 +3762,17 @@
         <v>1.2</v>
       </c>
       <c r="F104"/>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="S104" s="40"/>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="S104" s="45"/>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C105">
         <v>0.8</v>
@@ -3639,17 +3781,17 @@
         <v>1.2</v>
       </c>
       <c r="F105"/>
-      <c r="M105">
-        <v>1</v>
-      </c>
-      <c r="S105" s="40"/>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="S105" s="45"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C106">
         <v>0.8</v>
@@ -3658,17 +3800,17 @@
         <v>1.2</v>
       </c>
       <c r="F106"/>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="S106" s="40"/>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="S106" s="45"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C107">
         <v>0.8</v>
@@ -3677,17 +3819,17 @@
         <v>1.2</v>
       </c>
       <c r="F107"/>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="S107" s="40"/>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="S107" s="45"/>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C108">
         <v>0.8</v>
@@ -3696,17 +3838,17 @@
         <v>1.2</v>
       </c>
       <c r="F108"/>
-      <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="S108" s="40"/>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="S108" s="45"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C109">
         <v>0.8</v>
@@ -3715,17 +3857,17 @@
         <v>1.2</v>
       </c>
       <c r="F109"/>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="S109" s="40"/>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="S109" s="45"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C110">
         <v>0.8</v>
@@ -3734,17 +3876,17 @@
         <v>1.2</v>
       </c>
       <c r="F110"/>
-      <c r="M110">
-        <v>1</v>
-      </c>
-      <c r="S110" s="40"/>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="S110" s="45"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C111">
         <v>0.8</v>
@@ -3753,17 +3895,17 @@
         <v>1.2</v>
       </c>
       <c r="F111"/>
-      <c r="M111">
-        <v>1</v>
-      </c>
-      <c r="S111" s="40"/>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="S111" s="45"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="C112">
         <v>0.8</v>
@@ -3772,17 +3914,17 @@
         <v>1.2</v>
       </c>
       <c r="F112"/>
-      <c r="M112">
-        <v>1</v>
-      </c>
-      <c r="S112" s="40"/>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="S112" s="45"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="C113">
         <v>0.8</v>
@@ -3794,14 +3936,14 @@
       <c r="M113">
         <v>1</v>
       </c>
-      <c r="S113" s="40"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S113" s="45"/>
+    </row>
+    <row r="114" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="C114">
         <v>0.8</v>
@@ -3813,14 +3955,14 @@
       <c r="M114">
         <v>1</v>
       </c>
-      <c r="S114" s="40"/>
+      <c r="S114" s="46"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C115">
         <v>0.8</v>
@@ -3832,14 +3974,13 @@
       <c r="M115">
         <v>1</v>
       </c>
-      <c r="S115" s="40"/>
-    </row>
-    <row r="116" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C116">
         <v>0.8</v>
@@ -3851,392 +3992,814 @@
       <c r="M116">
         <v>1</v>
       </c>
-      <c r="S116" s="41"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C117"/>
-      <c r="D117"/>
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117">
+        <v>0.8</v>
+      </c>
+      <c r="D117">
+        <v>1.2</v>
+      </c>
       <c r="F117"/>
+      <c r="M117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C118"/>
-      <c r="D118"/>
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118">
+        <v>0.8</v>
+      </c>
+      <c r="D118">
+        <v>1.2</v>
+      </c>
+      <c r="F118"/>
+      <c r="M118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C119"/>
-      <c r="D119"/>
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119">
+        <v>0.8</v>
+      </c>
+      <c r="D119">
+        <v>1.2</v>
+      </c>
+      <c r="F119"/>
+      <c r="M119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C120"/>
-      <c r="D120"/>
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120">
+        <v>0.8</v>
+      </c>
+      <c r="D120">
+        <v>1.2</v>
+      </c>
+      <c r="F120"/>
+      <c r="M120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C121"/>
-      <c r="D121"/>
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121">
+        <v>0.8</v>
+      </c>
+      <c r="D121">
+        <v>1.2</v>
+      </c>
+      <c r="F121"/>
+      <c r="M121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C122"/>
-      <c r="D122"/>
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122">
+        <v>0.8</v>
+      </c>
+      <c r="D122">
+        <v>1.2</v>
+      </c>
+      <c r="F122"/>
+      <c r="M122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C123"/>
-      <c r="D123"/>
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123">
+        <v>0.8</v>
+      </c>
+      <c r="D123">
+        <v>1.2</v>
+      </c>
+      <c r="F123"/>
+      <c r="M123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C124"/>
-      <c r="D124"/>
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124">
+        <v>0.8</v>
+      </c>
+      <c r="D124">
+        <v>1.2</v>
+      </c>
+      <c r="F124"/>
+      <c r="M124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C125"/>
-      <c r="D125"/>
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125">
+        <v>0.8</v>
+      </c>
+      <c r="D125">
+        <v>1.2</v>
+      </c>
+      <c r="F125"/>
+      <c r="M125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C126"/>
-      <c r="D126"/>
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126">
+        <v>0.8</v>
+      </c>
+      <c r="D126">
+        <v>1.2</v>
+      </c>
+      <c r="F126"/>
+      <c r="M126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C127"/>
-      <c r="D127"/>
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127">
+        <v>0.8</v>
+      </c>
+      <c r="D127">
+        <v>1.2</v>
+      </c>
+      <c r="F127"/>
+      <c r="M127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C128"/>
-      <c r="D128"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C129"/>
-      <c r="D129"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C130"/>
-      <c r="D130"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C131"/>
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C132"/>
-      <c r="D132"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133"/>
-      <c r="D133"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C134"/>
-      <c r="D134"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C135"/>
-      <c r="D135"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C136"/>
-      <c r="D136"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C137"/>
-      <c r="D137"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C138"/>
-      <c r="D138"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C139"/>
-      <c r="D139"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C140"/>
-      <c r="D140"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C141"/>
-      <c r="D141"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C142"/>
-      <c r="D142"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C143"/>
-      <c r="D143"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C144"/>
-      <c r="D144"/>
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128">
+        <v>0.8</v>
+      </c>
+      <c r="D128">
+        <v>1.2</v>
+      </c>
+      <c r="F128"/>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="S128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129">
+        <v>0.8</v>
+      </c>
+      <c r="D129">
+        <v>1.2</v>
+      </c>
+      <c r="F129"/>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="S129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130">
+        <v>0.8</v>
+      </c>
+      <c r="D130">
+        <v>1.2</v>
+      </c>
+      <c r="F130"/>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131">
+        <v>0.8</v>
+      </c>
+      <c r="D131">
+        <v>1.2</v>
+      </c>
+      <c r="F131"/>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132">
+        <v>0.8</v>
+      </c>
+      <c r="D132">
+        <v>1.2</v>
+      </c>
+      <c r="F132"/>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133">
+        <v>0.8</v>
+      </c>
+      <c r="D133">
+        <v>1.2</v>
+      </c>
+      <c r="F133"/>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134">
+        <v>0.8</v>
+      </c>
+      <c r="D134">
+        <v>1.2</v>
+      </c>
+      <c r="F134"/>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135">
+        <v>0.8</v>
+      </c>
+      <c r="D135">
+        <v>1.2</v>
+      </c>
+      <c r="F135"/>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136">
+        <v>0.8</v>
+      </c>
+      <c r="D136">
+        <v>1.2</v>
+      </c>
+      <c r="F136"/>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137">
+        <v>0.8</v>
+      </c>
+      <c r="D137">
+        <v>1.2</v>
+      </c>
+      <c r="F137"/>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138">
+        <v>0.8</v>
+      </c>
+      <c r="D138">
+        <v>1.2</v>
+      </c>
+      <c r="F138"/>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139">
+        <v>0.8</v>
+      </c>
+      <c r="D139">
+        <v>1.2</v>
+      </c>
+      <c r="F139"/>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140">
+        <v>0.8</v>
+      </c>
+      <c r="D140">
+        <v>1.2</v>
+      </c>
+      <c r="F140"/>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141">
+        <v>0.8</v>
+      </c>
+      <c r="D141">
+        <v>1.2</v>
+      </c>
+      <c r="F141"/>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142">
+        <v>0.8</v>
+      </c>
+      <c r="D142">
+        <v>1.2</v>
+      </c>
+      <c r="F142"/>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143">
+        <v>0.8</v>
+      </c>
+      <c r="D143">
+        <v>1.2</v>
+      </c>
+      <c r="F143"/>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144">
+        <v>0.8</v>
+      </c>
+      <c r="D144">
+        <v>1.2</v>
+      </c>
+      <c r="F144"/>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145">
+        <v>0.8</v>
+      </c>
+      <c r="D145">
+        <v>1.2</v>
+      </c>
+      <c r="F145"/>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G174" s="1"/>
+      <c r="S174" s="13"/>
+    </row>
+    <row r="175" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G175" s="1"/>
+      <c r="S175" s="13"/>
     </row>
     <row r="176" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G176" s="2"/>
-      <c r="S176" s="37"/>
+      <c r="G176" s="1"/>
+      <c r="S176" s="13"/>
     </row>
     <row r="177" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G177" s="2"/>
-      <c r="S177" s="37"/>
+      <c r="G177" s="1"/>
+      <c r="S177" s="13"/>
     </row>
     <row r="178" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G178" s="2"/>
-      <c r="S178" s="37"/>
+      <c r="G178" s="1"/>
+      <c r="S178" s="13"/>
     </row>
     <row r="179" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G179" s="2"/>
-      <c r="S179" s="37"/>
+      <c r="G179" s="1"/>
+      <c r="S179" s="13"/>
     </row>
     <row r="180" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G180" s="2"/>
-      <c r="S180" s="37"/>
+      <c r="G180" s="1"/>
+      <c r="S180" s="13"/>
     </row>
     <row r="181" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G181" s="2"/>
-      <c r="S181" s="37"/>
+      <c r="G181" s="1"/>
+      <c r="S181" s="13"/>
     </row>
     <row r="182" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G182" s="2"/>
-      <c r="S182" s="37"/>
+      <c r="G182" s="1"/>
+      <c r="S182" s="13"/>
     </row>
     <row r="183" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G183" s="2"/>
-      <c r="S183" s="37"/>
+      <c r="G183" s="1"/>
+      <c r="S183" s="13"/>
     </row>
     <row r="184" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G184" s="2"/>
-      <c r="S184" s="37"/>
+      <c r="G184" s="1"/>
+      <c r="S184" s="13"/>
     </row>
     <row r="185" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G185" s="2"/>
-      <c r="S185" s="37"/>
+      <c r="G185" s="1"/>
+      <c r="S185" s="13"/>
     </row>
     <row r="186" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G186" s="2"/>
-      <c r="S186" s="37"/>
+      <c r="G186" s="1"/>
+      <c r="S186" s="13"/>
     </row>
     <row r="187" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G187" s="2"/>
-      <c r="S187" s="37"/>
+      <c r="G187" s="1"/>
+      <c r="S187" s="13"/>
     </row>
     <row r="188" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G188" s="2"/>
-      <c r="S188" s="37"/>
+      <c r="G188" s="1"/>
+      <c r="S188" s="13"/>
     </row>
     <row r="189" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G189" s="2"/>
-      <c r="S189" s="37"/>
+      <c r="G189" s="1"/>
+      <c r="S189" s="13"/>
     </row>
     <row r="190" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G190" s="2"/>
-      <c r="S190" s="37"/>
+      <c r="G190" s="1"/>
+      <c r="S190" s="13"/>
     </row>
     <row r="191" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G191" s="2"/>
-      <c r="S191" s="37"/>
+      <c r="G191" s="1"/>
+      <c r="S191" s="13"/>
     </row>
     <row r="192" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G192" s="2"/>
-      <c r="S192" s="37"/>
+      <c r="G192" s="1"/>
+      <c r="S192" s="13"/>
     </row>
     <row r="193" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G193" s="2"/>
-      <c r="S193" s="37"/>
+      <c r="G193" s="1"/>
+      <c r="S193" s="13"/>
     </row>
     <row r="194" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G194" s="2"/>
-      <c r="S194" s="37"/>
+      <c r="G194" s="1"/>
+      <c r="S194" s="13"/>
     </row>
     <row r="195" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G195" s="2"/>
-      <c r="S195" s="37"/>
+      <c r="G195" s="1"/>
+      <c r="S195" s="13"/>
     </row>
     <row r="196" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G196" s="2"/>
-      <c r="S196" s="37"/>
+      <c r="G196" s="1"/>
+      <c r="S196" s="13"/>
     </row>
     <row r="197" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G197" s="2"/>
-      <c r="S197" s="37"/>
+      <c r="G197" s="1"/>
+      <c r="S197" s="13"/>
     </row>
     <row r="198" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G198" s="2"/>
-      <c r="S198" s="37"/>
+      <c r="G198" s="1"/>
+      <c r="S198" s="13"/>
     </row>
     <row r="199" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G199" s="2"/>
-      <c r="S199" s="37"/>
+      <c r="G199" s="1"/>
+      <c r="S199" s="13"/>
     </row>
     <row r="200" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G200" s="2"/>
-      <c r="S200" s="37"/>
+      <c r="G200" s="1"/>
+      <c r="S200" s="13"/>
     </row>
     <row r="201" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G201" s="2"/>
-      <c r="S201" s="37"/>
+      <c r="G201" s="1"/>
+      <c r="S201" s="13"/>
     </row>
     <row r="202" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G202" s="2"/>
-      <c r="S202" s="37"/>
+      <c r="G202" s="1"/>
+      <c r="S202" s="13"/>
     </row>
     <row r="203" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G203" s="2"/>
-      <c r="S203" s="37"/>
+      <c r="G203" s="1"/>
+      <c r="S203" s="13"/>
     </row>
     <row r="204" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G204" s="2"/>
-      <c r="S204" s="37"/>
+      <c r="G204" s="1"/>
+      <c r="S204" s="13"/>
     </row>
     <row r="205" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G205" s="2"/>
-      <c r="S205" s="37"/>
+      <c r="G205" s="1"/>
+      <c r="S205" s="13"/>
     </row>
     <row r="206" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G206" s="2"/>
-      <c r="S206" s="37"/>
+      <c r="G206" s="1"/>
+      <c r="S206" s="13"/>
     </row>
     <row r="207" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G207" s="2"/>
-      <c r="S207" s="37"/>
+      <c r="G207" s="1"/>
+      <c r="S207" s="13"/>
     </row>
     <row r="208" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G208" s="2"/>
-      <c r="S208" s="37"/>
+      <c r="G208" s="1"/>
+      <c r="S208" s="13"/>
     </row>
     <row r="209" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G209" s="2"/>
-      <c r="S209" s="37"/>
+      <c r="G209" s="1"/>
+      <c r="S209" s="13"/>
     </row>
     <row r="210" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G210" s="2"/>
-      <c r="S210" s="37"/>
+      <c r="G210" s="1"/>
+      <c r="S210" s="13"/>
     </row>
     <row r="211" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G211" s="2"/>
-      <c r="S211" s="37"/>
+      <c r="G211" s="1"/>
+      <c r="S211" s="13"/>
     </row>
     <row r="212" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G212" s="2"/>
-      <c r="S212" s="37"/>
+      <c r="G212" s="1"/>
+      <c r="S212" s="13"/>
     </row>
     <row r="213" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G213" s="2"/>
-      <c r="S213" s="37"/>
+      <c r="G213" s="1"/>
+      <c r="S213" s="13"/>
     </row>
     <row r="214" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G214" s="2"/>
-      <c r="S214" s="37"/>
+      <c r="G214" s="1"/>
+      <c r="S214" s="13"/>
     </row>
     <row r="215" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G215" s="2"/>
-      <c r="S215" s="37"/>
+      <c r="G215" s="1"/>
+      <c r="S215" s="13"/>
     </row>
     <row r="216" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G216" s="2"/>
-      <c r="S216" s="37"/>
+      <c r="G216" s="1"/>
+      <c r="S216" s="13"/>
     </row>
     <row r="217" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G217" s="2"/>
-      <c r="S217" s="37"/>
+      <c r="G217" s="1"/>
+      <c r="S217" s="13"/>
     </row>
     <row r="218" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G218" s="2"/>
-      <c r="S218" s="37"/>
+      <c r="G218" s="1"/>
+      <c r="S218" s="13"/>
     </row>
     <row r="219" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G219" s="2"/>
-      <c r="S219" s="37"/>
+      <c r="G219" s="1"/>
+      <c r="S219" s="13"/>
     </row>
     <row r="220" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G220" s="2"/>
-      <c r="S220" s="37"/>
+      <c r="G220" s="1"/>
+      <c r="S220" s="13"/>
     </row>
     <row r="221" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G221" s="2"/>
-      <c r="S221" s="37"/>
+      <c r="G221" s="1"/>
+      <c r="S221" s="13"/>
     </row>
     <row r="222" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G222" s="2"/>
-      <c r="S222" s="37"/>
+      <c r="G222" s="1"/>
+      <c r="S222" s="13"/>
     </row>
     <row r="223" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G223" s="2"/>
-      <c r="S223" s="37"/>
+      <c r="G223" s="1"/>
+      <c r="S223" s="13"/>
     </row>
     <row r="224" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G224" s="2"/>
-      <c r="S224" s="37"/>
+      <c r="G224" s="1"/>
+      <c r="S224" s="13"/>
     </row>
     <row r="225" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G225" s="2"/>
-      <c r="S225" s="37"/>
+      <c r="G225" s="1"/>
+      <c r="S225" s="13"/>
     </row>
     <row r="226" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G226" s="2"/>
-      <c r="S226" s="37"/>
+      <c r="G226" s="1"/>
+      <c r="S226" s="13"/>
     </row>
     <row r="227" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G227" s="2"/>
-      <c r="S227" s="37"/>
+      <c r="G227" s="1"/>
+      <c r="S227" s="13"/>
     </row>
     <row r="228" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G228" s="2"/>
-      <c r="S228" s="37"/>
+      <c r="G228" s="1"/>
+      <c r="S228" s="13"/>
     </row>
     <row r="229" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G229" s="2"/>
-      <c r="S229" s="37"/>
+      <c r="G229" s="1"/>
+      <c r="S229" s="13"/>
     </row>
     <row r="230" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G230" s="2"/>
-      <c r="S230" s="37"/>
+      <c r="G230" s="1"/>
+      <c r="S230" s="13"/>
     </row>
     <row r="231" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G231" s="2"/>
-      <c r="S231" s="37"/>
+      <c r="G231" s="1"/>
+      <c r="S231" s="13"/>
     </row>
     <row r="232" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G232" s="2"/>
-      <c r="S232" s="37"/>
+      <c r="G232" s="1"/>
+      <c r="S232" s="13"/>
     </row>
     <row r="233" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G233" s="2"/>
-      <c r="S233" s="37"/>
+      <c r="G233" s="1"/>
+      <c r="S233" s="13"/>
     </row>
     <row r="234" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G234" s="2"/>
-      <c r="S234" s="37"/>
+      <c r="G234" s="1"/>
+      <c r="S234" s="13"/>
     </row>
     <row r="235" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G235" s="2"/>
-      <c r="S235" s="37"/>
+      <c r="G235" s="1"/>
+      <c r="S235" s="13"/>
     </row>
     <row r="236" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G236" s="2"/>
-      <c r="S236" s="37"/>
+      <c r="G236" s="1"/>
+      <c r="S236" s="13"/>
     </row>
     <row r="237" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G237" s="2"/>
-      <c r="S237" s="37"/>
-    </row>
-    <row r="238" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G238" s="2"/>
-      <c r="S238" s="37"/>
-    </row>
-    <row r="239" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="G239" s="2"/>
-      <c r="S239" s="37"/>
+      <c r="G237" s="1"/>
+      <c r="S237" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="S176:S239"/>
-    <mergeCell ref="S4:S25"/>
-    <mergeCell ref="S26:S49"/>
-    <mergeCell ref="S50:S65"/>
-    <mergeCell ref="S66:S82"/>
-    <mergeCell ref="S83:S116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R145">
+    <sortCondition ref="A4:A145"/>
+    <sortCondition ref="B4:B145"/>
+  </sortState>
+  <mergeCells count="17">
+    <mergeCell ref="S78:S91"/>
+    <mergeCell ref="U27:U32"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="U36:U38"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="S4:S28"/>
+    <mergeCell ref="S29:S77"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:R2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="S174:S237"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ref/preliminary_calibration_info/df_ip_var_calib.xlsx
+++ b/ref/preliminary_calibration_info/df_ip_var_calib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/preliminary_calibration_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CDDFE5-FA8F-554F-8A31-2B5D3955EEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB8910-E979-EE4C-8504-CBD64104A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="30520" windowHeight="20040" xr2:uid="{C56D6200-D790-8F41-83C3-9FCF52DEFC0A}"/>
   </bookViews>
